--- a/graph_generation/results_prelim/gpt3.5/level_7/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_7/k_0.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -26,39 +28,179 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 what is the least cost path from node A to node P?
    A B C D E F G H I J K L M N O P
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ A 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
  M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is as follows:
-A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P
-The total cost of this path is 1 + 2 + 1 + 2 + 1 + 3 = 10.</t>
+    <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. 
+Start by initializing the cost of reaching each node with a very high value, except for node A which has a cost of 0. Also, keep track of the previous node for each node.
+Create an empty set of visited nodes and a priority queue to keep track of the nodes to visit.
+At each step, choose the node with the minimum cost from the priority queue. If it is the destination node P, stop the algorithm.
+For each of the neighboring nodes that have not been visited, calculate the cost of reaching them through the current node and update the cost if it is lower than the current cost. Also, update the previous node for each neighboring node.
+Mark the current node as visited and repeat the previous steps until the destination node is reached or there are no more nodes in the queue.
+Finally, trace back the path from node P to node A using the previous nodes and output the path.
+Using this algorithm, the least cost path from node A to P is: A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O -&gt; P
+The total cost of this path is 9.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 2/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; L -&gt; Q -&gt; V -&gt; W -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To find the least cost path from node A to node Y, we can use Dijkstra's algorithm. 
+1. Initialize an empty set called visited and a dictionary called distance, where distance[node] represents the minimum cost to reach node from node A. Set distance[A] = 0 and distance[other_nodes] = infinity. 
+2. While Y is not in visited:
+   - Select the node with the minimum distance value that is not in visited (let's call it current_node).
+   - Add current_node to visited.
+   - For each neighbor of current_node that is not in visited:
+     - Calculate the new cost to reach the neighbor from node A through current_node.
+     - If the new cost is less than the current cost stored in distance[neighbor], update distance[neighbor] with the new cost.
+3. The minimum cost to reach node Y from node A is stored in distance[Y]. 
+Here is the step-by-step process:
+1. Initialize visited = {} and distance = {'A': 0, 'B': infinity, 'C': infinity, 'D': infinity, 'E': infinity, 'F': infinity, 'G': infinity, 'H': infinity, 'I': infinity, 'J': infinity, 'K': infinity, 'L': infinity, 'M': infinity, 'N': infinity, 'O': infinity, 'P': infinity, 'Q': infinity, 'R': infinity, 'S': infinity, 'T': infinity, 'U': infinity, 'V': infinity, 'W': infinity, 'X': infinity, 'Y': infinity}.
+2. The node with the minimum distance value that is not in visited is A.
+   - visited = {'A'}
+   - Update the distance values for the neighbors of A:
+     - distance['B'] = 2
+     - distance['F'] = 0
+3. The node with the minimum distance value that is not in visited is F.
+   - visited = {'A', 'F'}
+   - Update the distance values for the neighbors of F:
+     - distance['B'] = 2
+     - distance['C'] = 3
+     - distance['H'] = 0
+4. The node with the minimum distance value that is not in visited is H.
+   - visited = {'A', 'F', 'H'}
+   - Update the distance values for the neighbors of H:
+     - distance['B'] = 2
+     - distance['C'] = 3
+     - distance['I'] = 4
+     - distance['L'] = 0
+5. The node with the minimum distance value that is not in visited is L.
+   - visited = {'A', 'F', 'H', 'L'}
+   - Update the distance values for the neighbors of L:
+     - distance['B'] = 2
+     - distance['C'] = 3
+     - distance['I'] = 4
+     - distance['M'] = 1
+</t>
+  </si>
+  <si>
+    <t>Output: 2/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 2 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 3 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; H -&gt; M -&gt; R -&gt; W -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node Y, we can use Dijkstra's algorithm. 
+1. Set the cost of starting node A to 0 and all other nodes to infinity.
+2. Set the visited status of all nodes to false.
+3. While there are unvisited nodes:
+   a. Choose the node with the smallest cost that has not been visited yet. In the first iteration, this will be node A.
+   b. Mark the chosen node as visited.
+   c. For each neighbor of the chosen node that has not been visited:
+      i. Calculate the new cost to reach the neighbor by adding the cost of the chosen node to the cost of the edge between the chosen node and the neighbor.
+      ii. If the new cost is smaller than the current cost of the neighbor, update the cost of the neighbor.
+4. Once node Y has been visited, we have found the least cost path from node A to node Y.
+Using Dijkstra's algorithm, the least cost path from node A to node Y is:
+A -&gt; B -&gt; C -&gt; H -&gt; R -&gt; X -&gt; Y
+The total cost of this path is 3 + 4 + 4 + 2 + 5 + 4 = 22.</t>
+  </si>
+  <si>
+    <t>Output: 4/6</t>
   </si>
 </sst>
 </file>
@@ -416,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,19 +577,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_7/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_7/k_0.xlsx
@@ -34,22 +34,22 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node P?
+what is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0 0
- G 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0
+ A 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 4 0 0 3 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
@@ -58,149 +58,107 @@
     <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
   </si>
   <si>
-    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. 
-Start by initializing the cost of reaching each node with a very high value, except for node A which has a cost of 0. Also, keep track of the previous node for each node.
-Create an empty set of visited nodes and a priority queue to keep track of the nodes to visit.
-At each step, choose the node with the minimum cost from the priority queue. If it is the destination node P, stop the algorithm.
-For each of the neighboring nodes that have not been visited, calculate the cost of reaching them through the current node and update the cost if it is lower than the current cost. Also, update the previous node for each neighboring node.
-Mark the current node as visited and repeat the previous steps until the destination node is reached or there are no more nodes in the queue.
-Finally, trace back the path from node P to node A using the previous nodes and output the path.
-Using this algorithm, the least cost path from node A to P is: A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O -&gt; P
-The total cost of this path is 9.</t>
+    <t>The least cost path from node A to node P is as follows: A - B - F - C - D - M - O - P</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 2/7</t>
+    <t>0/7</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node Y?
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
  M 0 0 0 0 0 0 0 3 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2
+ N 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; L -&gt; Q -&gt; V -&gt; W -&gt; X -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node Y, we can use Dijkstra's algorithm. We will start at node A and iteratively choose the node with the lowest cost that has not been visited yet until we reach node Y.
+First, let's initialize some variables:
+- Set the initial costs to infinity for all nodes except node A, which will have a cost of 0.
+- Set the initial visited status to false for all nodes.
+- Set the initial previous node to null for all nodes.
+- Set the current node to A.
+Now, let's iterate until we reach node Y:
+- Mark the current node as visited.
+- For each neighbor of the current node:
+  - If the neighbor is not visited and the cost from the current node to the neighbor is less than the current cost of the neighbor, update the cost and set the previous node of the neighbor to the current node.
+- Choose the unvisited node with the lowest cost as the new current node.
+Repeat these steps until we reach node Y.
+The final step is to backtrack from node Y to node A to get the sequence of nodes in the least cost path. Starting from node Y, we can follow the previous nodes until we reach node A.
+Here is the sequence of nodes in the least cost path from node A to node Y: A M N Q S T Y</t>
+  </si>
+  <si>
+    <t>0/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 4 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
  U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; G -&gt; L -&gt; Q -&gt; V -&gt; W -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To find the least cost path from node A to node Y, we can use Dijkstra's algorithm. 
-1. Initialize an empty set called visited and a dictionary called distance, where distance[node] represents the minimum cost to reach node from node A. Set distance[A] = 0 and distance[other_nodes] = infinity. 
-2. While Y is not in visited:
-   - Select the node with the minimum distance value that is not in visited (let's call it current_node).
-   - Add current_node to visited.
-   - For each neighbor of current_node that is not in visited:
-     - Calculate the new cost to reach the neighbor from node A through current_node.
-     - If the new cost is less than the current cost stored in distance[neighbor], update distance[neighbor] with the new cost.
-3. The minimum cost to reach node Y from node A is stored in distance[Y]. 
-Here is the step-by-step process:
-1. Initialize visited = {} and distance = {'A': 0, 'B': infinity, 'C': infinity, 'D': infinity, 'E': infinity, 'F': infinity, 'G': infinity, 'H': infinity, 'I': infinity, 'J': infinity, 'K': infinity, 'L': infinity, 'M': infinity, 'N': infinity, 'O': infinity, 'P': infinity, 'Q': infinity, 'R': infinity, 'S': infinity, 'T': infinity, 'U': infinity, 'V': infinity, 'W': infinity, 'X': infinity, 'Y': infinity}.
-2. The node with the minimum distance value that is not in visited is A.
-   - visited = {'A'}
-   - Update the distance values for the neighbors of A:
-     - distance['B'] = 2
-     - distance['F'] = 0
-3. The node with the minimum distance value that is not in visited is F.
-   - visited = {'A', 'F'}
-   - Update the distance values for the neighbors of F:
-     - distance['B'] = 2
-     - distance['C'] = 3
-     - distance['H'] = 0
-4. The node with the minimum distance value that is not in visited is H.
-   - visited = {'A', 'F', 'H'}
-   - Update the distance values for the neighbors of H:
-     - distance['B'] = 2
-     - distance['C'] = 3
-     - distance['I'] = 4
-     - distance['L'] = 0
-5. The node with the minimum distance value that is not in visited is L.
-   - visited = {'A', 'F', 'H', 'L'}
-   - Update the distance values for the neighbors of L:
-     - distance['B'] = 2
-     - distance['C'] = 3
-     - distance['I'] = 4
-     - distance['M'] = 1
-</t>
-  </si>
-  <si>
-    <t>Output: 2/9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node Y?
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 2 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; H -&gt; M -&gt; R -&gt; W -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node Y, we can use Dijkstra's algorithm. 
-1. Set the cost of starting node A to 0 and all other nodes to infinity.
-2. Set the visited status of all nodes to false.
-3. While there are unvisited nodes:
-   a. Choose the node with the smallest cost that has not been visited yet. In the first iteration, this will be node A.
-   b. Mark the chosen node as visited.
-   c. For each neighbor of the chosen node that has not been visited:
-      i. Calculate the new cost to reach the neighbor by adding the cost of the chosen node to the cost of the edge between the chosen node and the neighbor.
-      ii. If the new cost is smaller than the current cost of the neighbor, update the cost of the neighbor.
-4. Once node Y has been visited, we have found the least cost path from node A to node Y.
-Using Dijkstra's algorithm, the least cost path from node A to node Y is:
-A -&gt; B -&gt; C -&gt; H -&gt; R -&gt; X -&gt; Y
-The total cost of this path is 3 + 4 + 4 + 2 + 5 + 4 = 22.</t>
-  </si>
-  <si>
-    <t>Output: 4/6</t>
+    <t>A -&gt; F -&gt; K -&gt; P -&gt; U -&gt; V -&gt; W -&gt; X -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>Based on the given adjacency matrix, the least cost path from node A to node Y is:
+A -&gt; F -&gt; J -&gt; N -&gt; Y</t>
+  </si>
+  <si>
+    <t>2/11</t>
   </si>
 </sst>
 </file>
